--- a/console/Networking/diskChExcel/diskSnapshotMixins/components/snapshotShareDialog.xlsx
+++ b/console/Networking/diskChExcel/diskSnapshotMixins/components/snapshotShareDialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\MobileFile\translation_review-确认by-GTCOM\translation_review-确认\translation_review\diskChExcel\diskSnapshotMixins\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
     <t>snapshotShareDialog_i18nKey_1</t>
   </si>
   <si>
-    <t>By verifying the JD Cloud account, the snapshot will be displayed in the list. After confirming sharing, the snapshot will be shared to the JD Cloud accounts of the same region in the list</t>
-  </si>
-  <si>
     <t>snapshotShareDialog_i18nKey_2</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     </r>
   </si>
   <si>
-    <t>Shared Snapshot</t>
-  </si>
-  <si>
     <t>snapshotShareDialog_i18nKey_5</t>
   </si>
   <si>
@@ -144,20 +138,6 @@
     <t>snapshotShareDialog_i18nKey_8</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>当前快照未共享给其他用户</t>
-    </r>
-  </si>
-  <si>
-    <t>The current snapshot has not been shared to other users</t>
-  </si>
-  <si>
     <t>snapshotShareDialog_i18nKey_9</t>
   </si>
   <si>
@@ -287,50 +267,67 @@
   </si>
   <si>
     <t>snapshotShareDialog_i18nKey_13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>参数错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter Error'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The shared users shall be no more than 20 persons'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD Cloud accounts cannot be null'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharing Snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前快照未共享给其他用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The current snapshot is not shared with other users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过验证的京东云账号，会在列表中显示，确定共享后，此快照即在相同地域共享给列表中的京东云账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>参数错误</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter Error'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The shared users shall be no more than 20 persons'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JD Cloud accounts cannot be null'</t>
+    <t>The valid JD Cloud account will be displayed in the list . After clicking 
+share button,the snapshot will be shared with the account in the same region.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,6 +354,12 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -378,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -388,6 +391,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -729,168 +735,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="64" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B12 A1 A13" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B7 A1 A13 A9:B12 A8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>